--- a/docs/shrcore/shr-core-AppointmentReasonReference-model.xlsx
+++ b/docs/shrcore/shr-core-AppointmentReasonReference-model.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
